--- a/bike-database.xlsx
+++ b/bike-database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\nicolas\projects\20251120-copernicus-brightway-tutorial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A5CDA2-2860-492B-8544-46396409AFDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1990146-54B2-4A06-9392-C972ACDAEE86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00BCB9C1-FFA1-4EAB-A51E-58A513FA9020}"/>
+    <workbookView xWindow="-4995" yWindow="-21720" windowWidth="38640" windowHeight="21120" xr2:uid="{00BCB9C1-FFA1-4EAB-A51E-58A513FA9020}"/>
   </bookViews>
   <sheets>
     <sheet name="Bike" sheetId="1" r:id="rId1"/>
@@ -567,7 +567,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -664,7 +664,7 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>6.8</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
         <v>16</v>
@@ -687,7 +687,7 @@
         <v>26</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="C12" t="s">
         <v>22</v>
@@ -710,7 +710,7 @@
         <v>29</v>
       </c>
       <c r="B13">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="C13" t="s">
         <v>22</v>
